--- a/menu.xlsx
+++ b/menu.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\大二下\Final 網路程式設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lones\OneDrive\桌面\NP 專題\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504ED0AE-9D16-47A1-99E4-6A1D3C94D665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694C769B-FFA2-440D-9635-73BED326F93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{AA0B16D2-7978-4F04-ACD2-03662B960011}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{AA0B16D2-7978-4F04-ACD2-03662B960011}"/>
   </bookViews>
   <sheets>
     <sheet name="Food" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +96,34 @@
   </si>
   <si>
     <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思樂冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可樂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不喝飲料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不吃便當</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -103,7 +131,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -118,6 +146,13 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -142,8 +177,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -164,9 +202,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -204,7 +242,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -310,7 +348,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -452,7 +490,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -460,15 +498,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44828365-A201-4115-9E44-954857CB41E0}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -479,7 +517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -490,7 +528,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -501,7 +539,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -512,7 +550,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -523,7 +561,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -532,6 +570,17 @@
       </c>
       <c r="C6">
         <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -542,15 +591,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{593DE8ED-B000-4AD4-AE7C-30C5EC439FC1}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -561,7 +610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -572,7 +621,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -583,7 +632,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -594,7 +643,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -603,6 +652,39 @@
       </c>
       <c r="C5">
         <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
